--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H2">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I2">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J2">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>1166.157210645807</v>
+        <v>1315.36569357675</v>
       </c>
       <c r="R2">
-        <v>10495.41489581227</v>
+        <v>11838.29124219075</v>
       </c>
       <c r="S2">
-        <v>0.07010649955968427</v>
+        <v>0.06485706689587889</v>
       </c>
       <c r="T2">
-        <v>0.07010649955968426</v>
+        <v>0.0648570668958789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H3">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I3">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J3">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>214.2567377082187</v>
+        <v>211.7634762109547</v>
       </c>
       <c r="R3">
-        <v>1928.310639373968</v>
+        <v>1905.871285898592</v>
       </c>
       <c r="S3">
-        <v>0.01288058741195129</v>
+        <v>0.01044147495239229</v>
       </c>
       <c r="T3">
-        <v>0.01288058741195129</v>
+        <v>0.01044147495239229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H4">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I4">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J4">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>237.6166138738967</v>
+        <v>310.6653776034607</v>
       </c>
       <c r="R4">
-        <v>2138.54952486507</v>
+        <v>2795.988398431146</v>
       </c>
       <c r="S4">
-        <v>0.0142849256376837</v>
+        <v>0.01531805586526456</v>
       </c>
       <c r="T4">
-        <v>0.0142849256376837</v>
+        <v>0.01531805586526457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H5">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I5">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J5">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>297.789433239991</v>
+        <v>389.5168755995274</v>
       </c>
       <c r="R5">
-        <v>2680.104899159919</v>
+        <v>3505.651880395747</v>
       </c>
       <c r="S5">
-        <v>0.01790236734784376</v>
+        <v>0.01920600649781065</v>
       </c>
       <c r="T5">
-        <v>0.01790236734784376</v>
+        <v>0.01920600649781065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.389619</v>
+        <v>19.163986</v>
       </c>
       <c r="H6">
-        <v>58.168857</v>
+        <v>57.491958</v>
       </c>
       <c r="I6">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="J6">
-        <v>0.1304684867767725</v>
+        <v>0.1197574615923936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>254.403415661781</v>
+        <v>201.488768997008</v>
       </c>
       <c r="R6">
-        <v>2289.630740956029</v>
+        <v>1813.398920973072</v>
       </c>
       <c r="S6">
-        <v>0.01529410681960949</v>
+        <v>0.009934857381047194</v>
       </c>
       <c r="T6">
-        <v>0.01529410681960949</v>
+        <v>0.009934857381047194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I7">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J7">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>1446.974547583626</v>
+        <v>1651.329468660375</v>
       </c>
       <c r="R7">
-        <v>13022.77092825264</v>
+        <v>14861.96521794337</v>
       </c>
       <c r="S7">
-        <v>0.08698854627573585</v>
+        <v>0.08142251720494099</v>
       </c>
       <c r="T7">
-        <v>0.08698854627573584</v>
+        <v>0.08142251720494101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I8">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J8">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>265.8509875700249</v>
@@ -948,10 +948,10 @@
         <v>2392.658888130224</v>
       </c>
       <c r="S8">
-        <v>0.01598230665031697</v>
+        <v>0.01310838147091944</v>
       </c>
       <c r="T8">
-        <v>0.01598230665031697</v>
+        <v>0.01310838147091944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I9">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J9">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>294.8360557391122</v>
+        <v>390.0138915240486</v>
       </c>
       <c r="R9">
-        <v>2653.52450165201</v>
+        <v>3510.125023716437</v>
       </c>
       <c r="S9">
-        <v>0.01772481756589774</v>
+        <v>0.01923051298693562</v>
       </c>
       <c r="T9">
-        <v>0.01772481756589774</v>
+        <v>0.01923051298693562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I10">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J10">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>369.4988347231463</v>
+        <v>489.0052236872374</v>
       </c>
       <c r="R10">
-        <v>3325.489512508317</v>
+        <v>4401.047013185137</v>
       </c>
       <c r="S10">
-        <v>0.0222133599632562</v>
+        <v>0.02411150348529811</v>
       </c>
       <c r="T10">
-        <v>0.0222133599632562</v>
+        <v>0.02411150348529811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>72.17625099999999</v>
       </c>
       <c r="I11">
-        <v>0.1618860458129771</v>
+        <v>0.150345281456851</v>
       </c>
       <c r="J11">
-        <v>0.1618860458129771</v>
+        <v>0.1503452814568511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>315.665215564783</v>
+        <v>252.9519687746427</v>
       </c>
       <c r="R11">
-        <v>2840.986940083047</v>
+        <v>2276.567718971784</v>
       </c>
       <c r="S11">
-        <v>0.01897701535777033</v>
+        <v>0.01247236630875687</v>
       </c>
       <c r="T11">
-        <v>0.01897701535777033</v>
+        <v>0.01247236630875687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H12">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I12">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J12">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>2622.280628759068</v>
+        <v>4210.341159335625</v>
       </c>
       <c r="R12">
-        <v>23600.52565883162</v>
+        <v>37893.07043402062</v>
       </c>
       <c r="S12">
-        <v>0.1576450534003541</v>
+        <v>0.2076003498943083</v>
       </c>
       <c r="T12">
-        <v>0.157645053400354</v>
+        <v>0.2076003498943084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H13">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I13">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J13">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>481.7886368530293</v>
+        <v>677.8316359388533</v>
       </c>
       <c r="R13">
-        <v>4336.097731677264</v>
+        <v>6100.48472344968</v>
       </c>
       <c r="S13">
-        <v>0.02896394632649285</v>
+        <v>0.03342201485937119</v>
       </c>
       <c r="T13">
-        <v>0.02896394632649285</v>
+        <v>0.03342201485937119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H14">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I14">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J14">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>534.3168467721233</v>
+        <v>994.4057629689685</v>
       </c>
       <c r="R14">
-        <v>4808.85162094911</v>
+        <v>8949.651866720715</v>
       </c>
       <c r="S14">
-        <v>0.03212181294340002</v>
+        <v>0.04903141491789462</v>
       </c>
       <c r="T14">
-        <v>0.03212181294340001</v>
+        <v>0.04903141491789462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H15">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I15">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J15">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>669.6245198380429</v>
+        <v>1246.800750240802</v>
       </c>
       <c r="R15">
-        <v>6026.620678542386</v>
+        <v>11221.20675216721</v>
       </c>
       <c r="S15">
-        <v>0.04025617702023367</v>
+        <v>0.06147631799968435</v>
       </c>
       <c r="T15">
-        <v>0.04025617702023367</v>
+        <v>0.06147631799968436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.60048699999999</v>
+        <v>61.341815</v>
       </c>
       <c r="H16">
-        <v>130.801461</v>
+        <v>184.025445</v>
       </c>
       <c r="I16">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="J16">
-        <v>0.293378098951833</v>
+        <v>0.3833304853108436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>572.0645061317128</v>
+        <v>644.94342629932</v>
       </c>
       <c r="R16">
-        <v>5148.580555185416</v>
+        <v>5804.49083669388</v>
       </c>
       <c r="S16">
-        <v>0.03439110926135242</v>
+        <v>0.03180038763958507</v>
       </c>
       <c r="T16">
-        <v>0.03439110926135241</v>
+        <v>0.03180038763958508</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H17">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I17">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J17">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>424.6036776378818</v>
+        <v>487.03877858025</v>
       </c>
       <c r="R17">
-        <v>3821.433098740936</v>
+        <v>4383.34900722225</v>
       </c>
       <c r="S17">
-        <v>0.02552612741027903</v>
+        <v>0.02401454348210375</v>
       </c>
       <c r="T17">
-        <v>0.02552612741027903</v>
+        <v>0.02401454348210375</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H18">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I18">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J18">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>78.01195066934756</v>
+        <v>78.40939238824177</v>
       </c>
       <c r="R18">
-        <v>702.107556024128</v>
+        <v>705.684531494176</v>
       </c>
       <c r="S18">
-        <v>0.004689886350933732</v>
+        <v>0.003866151620209248</v>
       </c>
       <c r="T18">
-        <v>0.004689886350933732</v>
+        <v>0.003866151620209248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H19">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I19">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J19">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>86.5173985099689</v>
+        <v>115.0296733402931</v>
       </c>
       <c r="R19">
-        <v>778.6565865897201</v>
+        <v>1035.267060062638</v>
       </c>
       <c r="S19">
-        <v>0.005201212928388259</v>
+        <v>0.005671797018330231</v>
       </c>
       <c r="T19">
-        <v>0.005201212928388257</v>
+        <v>0.005671797018330231</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H20">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I20">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J20">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>108.4266232383693</v>
+        <v>144.2259169862709</v>
       </c>
       <c r="R20">
-        <v>975.8396091453241</v>
+        <v>1298.033252876438</v>
       </c>
       <c r="S20">
-        <v>0.006518341562291759</v>
+        <v>0.007111383542824813</v>
       </c>
       <c r="T20">
-        <v>0.006518341562291758</v>
+        <v>0.007111383542824813</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.059857333333333</v>
+        <v>7.095824666666666</v>
       </c>
       <c r="H21">
-        <v>21.179572</v>
+        <v>21.287474</v>
       </c>
       <c r="I21">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="J21">
-        <v>0.04750422910011282</v>
+        <v>0.04434244264135302</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>92.62955706787599</v>
+        <v>74.60498964595733</v>
       </c>
       <c r="R21">
-        <v>833.666013610884</v>
+        <v>671.4449068136159</v>
       </c>
       <c r="S21">
-        <v>0.00556866084822004</v>
+        <v>0.00367856697788498</v>
       </c>
       <c r="T21">
-        <v>0.005568660848220038</v>
+        <v>0.00367856697788498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H22">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I22">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J22">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N22">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O22">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P22">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q22">
-        <v>3278.212924271646</v>
+        <v>3319.505180245126</v>
       </c>
       <c r="R22">
-        <v>29503.91631844482</v>
+        <v>29875.54662220613</v>
       </c>
       <c r="S22">
-        <v>0.1970780876145567</v>
+        <v>0.1636756763443842</v>
       </c>
       <c r="T22">
-        <v>0.1970780876145566</v>
+        <v>0.1636756763443842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H23">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I23">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J23">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P23">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q23">
-        <v>602.3023313283733</v>
+        <v>534.4140870494454</v>
       </c>
       <c r="R23">
-        <v>5420.720981955359</v>
+        <v>4809.726783445009</v>
       </c>
       <c r="S23">
-        <v>0.03620893284421353</v>
+        <v>0.02635048972549741</v>
       </c>
       <c r="T23">
-        <v>0.03620893284421352</v>
+        <v>0.02635048972549741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H24">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I24">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J24">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N24">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q24">
-        <v>667.9698479004334</v>
+        <v>784.0065582623645</v>
       </c>
       <c r="R24">
-        <v>6011.7286311039</v>
+        <v>7056.05902436128</v>
       </c>
       <c r="S24">
-        <v>0.04015670221837466</v>
+        <v>0.03865720844350348</v>
       </c>
       <c r="T24">
-        <v>0.04015670221837465</v>
+        <v>0.03865720844350348</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H25">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I25">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J25">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N25">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q25">
-        <v>837.12312529307</v>
+        <v>982.9990949737978</v>
       </c>
       <c r="R25">
-        <v>7534.108127637629</v>
+        <v>8846.991854764179</v>
       </c>
       <c r="S25">
-        <v>0.05032578067433924</v>
+        <v>0.04846898347176941</v>
       </c>
       <c r="T25">
-        <v>0.05032578067433922</v>
+        <v>0.04846898347176941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>54.50662999999999</v>
+        <v>48.362939</v>
       </c>
       <c r="H26">
-        <v>163.51989</v>
+        <v>145.088817</v>
       </c>
       <c r="I26">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="J26">
-        <v>0.3667631393583046</v>
+        <v>0.3022243289985588</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N26">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q26">
-        <v>715.1596350713698</v>
+        <v>508.484458514392</v>
       </c>
       <c r="R26">
-        <v>6436.436715642329</v>
+        <v>4576.360126629528</v>
       </c>
       <c r="S26">
-        <v>0.0429936360068205</v>
+        <v>0.02507197101340427</v>
       </c>
       <c r="T26">
-        <v>0.0429936360068205</v>
+        <v>0.02507197101340427</v>
       </c>
     </row>
   </sheetData>
